--- a/pred_ohlcv/54_21/2020-01-20 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-278197.5898000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-277863.5287000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-269863.5287000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-271923.5288000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-282556.8375000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-282129.6375000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-251801.1502000001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-251777.6299000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-246777.6299000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-255763.2671000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-259670.5475000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-260170.6814000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-260456.6417000001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-261471.7762000001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-261471.7762000001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-261371.7762000001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-297873.3195000001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-297873.3195000001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-297723.4193000001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-297623.4193000001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-290962.6216000001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-293678.0943000001</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-291839.7981000001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-299846.0315000002</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-520037.6209773911</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-519685.9027773911</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-563066.5378091468</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-589074.8946091468</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-591218.7958091467</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-604771.0999091467</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-604771.0999091467</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-604771.0999091467</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-604771.0999091467</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-606156.6701091466</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-606156.6701091466</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-606156.6701091466</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-596827.9186091466</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-621127.9186091466</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-649400.0491192383</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-647035.4763192383</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-647029.4763192383</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-647036.3650192383</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-647026.3650192383</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-684798.3618741386</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-684798.3618741386</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-684798.3618741386</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1163192.519974138</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1194194.893674138</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1183465.893674138</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1204397.977074138</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1204377.977074138</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1232598.189574138</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1232598.189574138</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 ENJ ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>-251777.6299000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-246777.6299000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-255763.2671000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-259670.5475000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-260170.6814000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-260456.6417000001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-261471.7762000001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-261471.7762000001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-261371.7762000001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-297873.3195000001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-297873.3195000001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-297623.4193000001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-290962.6216000001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-293678.0943000001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-291839.7981000001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-293839.7981000001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-520037.6209773911</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-519685.9027773911</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-563066.5378091468</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-589074.8946091468</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-591218.7958091467</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-604771.0999091467</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-604771.0999091467</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-604771.0999091467</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-604771.0999091467</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-606156.6701091466</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-606156.6701091466</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-606156.6701091466</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-596827.9186091466</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-621127.9186091466</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-623899.8864192383</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-646408.0491192383</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-646400.0491192383</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-649400.0491192383</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-647035.4763192383</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-647029.4763192383</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-647036.3650192383</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-647026.3650192383</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-602233.2690192383</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-602233.2690192383</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-663149.6736192383</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-663129.6736192383</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-684798.3618741386</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-684798.3618741386</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-684798.3618741386</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1163192.519974138</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1194549.019974138</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1194194.893674138</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1183465.893674138</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1204397.977074138</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1204377.977074138</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1232598.189574138</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1232598.189574138</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
